--- a/Data/Assumption/Zone_Limit/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneB1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MaxCapacity" sheetId="4" r:id="rId1"/>
@@ -68,18 +68,6 @@
     <t>BIO_IGCC_CHP</t>
   </si>
   <si>
-    <t>COA_CHP_BP</t>
-  </si>
-  <si>
-    <t>COA_CHP_EC</t>
-  </si>
-  <si>
-    <t>COA_CHP_BP_CCS</t>
-  </si>
-  <si>
-    <t>GAS_CHP_EC_CCS</t>
-  </si>
-  <si>
     <t>ProcessName</t>
   </si>
   <si>
@@ -117,6 +105,18 @@
   </si>
   <si>
     <t>BIO_IGCC_CCS</t>
+  </si>
+  <si>
+    <t>COA_CHP_BP_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_CCS_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC_CCS_DH</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4">
@@ -580,7 +580,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>0</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>0</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>0</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>0</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>0</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>0</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>0</v>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1915,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4">
@@ -1954,7 +1954,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>0</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>0</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>0</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>0</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>0</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>0</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>0</v>

--- a/Data/Assumption/Zone_Limit/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneB1.xlsx
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1000,34 +1000,34 @@
         <v>1000</v>
       </c>
       <c r="D12" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1041,34 +1041,34 @@
         <v>1000</v>
       </c>
       <c r="D13" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1082,34 +1082,34 @@
         <v>1000</v>
       </c>
       <c r="D14" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1123,34 +1123,34 @@
         <v>1000</v>
       </c>
       <c r="D15" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1164,34 +1164,34 @@
         <v>1000</v>
       </c>
       <c r="D16" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1205,34 +1205,34 @@
         <v>1000</v>
       </c>
       <c r="D17" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1246,34 +1246,34 @@
         <v>1000</v>
       </c>
       <c r="D18" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1287,34 +1287,34 @@
         <v>1000</v>
       </c>
       <c r="D19" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1328,34 +1328,34 @@
         <v>1000</v>
       </c>
       <c r="D20" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1369,34 +1369,34 @@
         <v>1000</v>
       </c>
       <c r="D21" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1410,34 +1410,34 @@
         <v>1000</v>
       </c>
       <c r="D22" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1451,34 +1451,34 @@
         <v>1000</v>
       </c>
       <c r="D23" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">

--- a/Data/Assumption/Zone_Limit/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneB1.xlsx
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:M23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <v>4000</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>4000</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
         <v>4000</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6">
         <v>1000</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F31" s="6">
         <v>4000</v>
@@ -1817,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="6">
         <v>4000</v>
